--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhba-Tgfbr3.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H2">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I2">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J2">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N2">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O2">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P2">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q2">
-        <v>1.022265922153333</v>
+        <v>3.182535753988</v>
       </c>
       <c r="R2">
-        <v>9.20039329938</v>
+        <v>28.642821785892</v>
       </c>
       <c r="S2">
-        <v>0.0007254655579329922</v>
+        <v>0.002346929447106461</v>
       </c>
       <c r="T2">
-        <v>0.0007254655579329921</v>
+        <v>0.002346929447106461</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H3">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I3">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J3">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>167.922954</v>
       </c>
       <c r="O3">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P3">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q3">
-        <v>2.824202872796</v>
+        <v>7.296980017434</v>
       </c>
       <c r="R3">
-        <v>25.417825855164</v>
+        <v>65.672820156906</v>
       </c>
       <c r="S3">
-        <v>0.002004235755519584</v>
+        <v>0.00538108558761783</v>
       </c>
       <c r="T3">
-        <v>0.002004235755519583</v>
+        <v>0.005381085587617831</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G4">
+        <v>0.130363</v>
+      </c>
+      <c r="H4">
+        <v>0.391089</v>
+      </c>
+      <c r="I4">
+        <v>0.008067686305671385</v>
+      </c>
+      <c r="J4">
+        <v>0.008067686305671385</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G4">
-        <v>0.05045533333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.151366</v>
-      </c>
-      <c r="I4">
-        <v>0.003375510225744801</v>
-      </c>
-      <c r="J4">
-        <v>0.0033755102257448</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M4">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N4">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O4">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P4">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q4">
-        <v>0.003624896149555555</v>
+        <v>0.008003592930666664</v>
       </c>
       <c r="R4">
-        <v>0.03262406534599999</v>
+        <v>0.07203233637599998</v>
       </c>
       <c r="S4">
-        <v>2.572459132793073E-06</v>
+        <v>5.902170276672255E-06</v>
       </c>
       <c r="T4">
-        <v>2.572459132793073E-06</v>
+        <v>5.902170276672255E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H5">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I5">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J5">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N5">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O5">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P5">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q5">
-        <v>0.8872536225224443</v>
+        <v>0.4277930502846666</v>
       </c>
       <c r="R5">
-        <v>7.985282602701999</v>
+        <v>3.850137452562</v>
       </c>
       <c r="S5">
-        <v>0.0006296521583498181</v>
+        <v>0.0003154717447313759</v>
       </c>
       <c r="T5">
-        <v>0.000629652158349818</v>
+        <v>0.0003154717447313759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05045533333333333</v>
+        <v>0.130363</v>
       </c>
       <c r="H6">
-        <v>0.151366</v>
+        <v>0.391089</v>
       </c>
       <c r="I6">
-        <v>0.003375510225744801</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="J6">
-        <v>0.0033755102257448</v>
+        <v>0.008067686305671385</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N6">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O6">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P6">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q6">
-        <v>0.009752696382888885</v>
+        <v>0.02375087842433333</v>
       </c>
       <c r="R6">
-        <v>0.08777426744599998</v>
+        <v>0.213757905819</v>
       </c>
       <c r="S6">
-        <v>6.921139763575449E-06</v>
+        <v>1.75148498799626E-05</v>
       </c>
       <c r="T6">
-        <v>6.921139763575448E-06</v>
+        <v>1.75148498799626E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.130363</v>
+      </c>
+      <c r="H7">
+        <v>0.391089</v>
+      </c>
+      <c r="I7">
+        <v>0.008067686305671385</v>
+      </c>
+      <c r="J7">
+        <v>0.008067686305671385</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G7">
-        <v>0.05045533333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.151366</v>
-      </c>
-      <c r="I7">
-        <v>0.003375510225744801</v>
-      </c>
-      <c r="J7">
-        <v>0.0033755102257448</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N7">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O7">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P7">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q7">
-        <v>0.009389165706222221</v>
+        <v>0.001061111365666666</v>
       </c>
       <c r="R7">
-        <v>0.08450249135599999</v>
+        <v>0.009550002290999999</v>
       </c>
       <c r="S7">
-        <v>6.663155046039123E-06</v>
+        <v>7.825060590825467E-07</v>
       </c>
       <c r="T7">
-        <v>6.663155046039122E-06</v>
+        <v>7.825060590825469E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>17.330513</v>
       </c>
       <c r="I8">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J8">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N8">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O8">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P8">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q8">
-        <v>117.0434103651767</v>
+        <v>141.0292216284627</v>
       </c>
       <c r="R8">
-        <v>1053.39069328659</v>
+        <v>1269.262994656164</v>
       </c>
       <c r="S8">
-        <v>0.08306152162843686</v>
+        <v>0.1040006016358459</v>
       </c>
       <c r="T8">
-        <v>0.08306152162843686</v>
+        <v>0.1040006016358459</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>17.330513</v>
       </c>
       <c r="I9">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J9">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>167.922954</v>
       </c>
       <c r="O9">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P9">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q9">
         <v>323.354548588378</v>
@@ -1013,10 +1013,10 @@
         <v>2910.190937295402</v>
       </c>
       <c r="S9">
-        <v>0.2294731565615591</v>
+        <v>0.2384546068294517</v>
       </c>
       <c r="T9">
-        <v>0.2294731565615591</v>
+        <v>0.2384546068294517</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>17.330513</v>
       </c>
       <c r="I10">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J10">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N10">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O10">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P10">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q10">
-        <v>0.4150291997114444</v>
+        <v>0.3546670229324444</v>
       </c>
       <c r="R10">
-        <v>3.735262797402999</v>
+        <v>3.192003206392</v>
       </c>
       <c r="S10">
-        <v>0.0002945313772104639</v>
+        <v>0.0002615456806713615</v>
       </c>
       <c r="T10">
-        <v>0.000294531377210464</v>
+        <v>0.0002615456806713615</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>17.330513</v>
       </c>
       <c r="I11">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J11">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N11">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O11">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P11">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q11">
-        <v>101.5852994689845</v>
+        <v>18.95699704995044</v>
       </c>
       <c r="R11">
-        <v>914.2676952208609</v>
+        <v>170.612973449554</v>
       </c>
       <c r="S11">
-        <v>0.07209145327061282</v>
+        <v>0.01397964957643859</v>
       </c>
       <c r="T11">
-        <v>0.07209145327061282</v>
+        <v>0.01397964957643859</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>17.330513</v>
       </c>
       <c r="I12">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J12">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N12">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O12">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P12">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q12">
-        <v>1.116626134328111</v>
+        <v>1.052483980102556</v>
       </c>
       <c r="R12">
-        <v>10.049635208953</v>
+        <v>9.472355820923001</v>
       </c>
       <c r="S12">
-        <v>0.0007924296251962873</v>
+        <v>0.0007761438791112514</v>
       </c>
       <c r="T12">
-        <v>0.0007924296251962873</v>
+        <v>0.0007761438791112516</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>17.330513</v>
       </c>
       <c r="I13">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="J13">
-        <v>0.3864759843617668</v>
+        <v>0.3575072231649571</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N13">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O13">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P13">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q13">
-        <v>1.075004018939778</v>
+        <v>0.04702153299411111</v>
       </c>
       <c r="R13">
-        <v>9.675036170457998</v>
+        <v>0.423193796947</v>
       </c>
       <c r="S13">
-        <v>0.0007628918987513483</v>
+        <v>3.467556343826812E-05</v>
       </c>
       <c r="T13">
-        <v>0.0007628918987513483</v>
+        <v>3.467556343826813E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1293,10 +1293,10 @@
         <v>1.88887</v>
       </c>
       <c r="I14">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J14">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N14">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O14">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P14">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q14">
-        <v>12.75667872823333</v>
+        <v>15.37091636337333</v>
       </c>
       <c r="R14">
-        <v>114.8101085541</v>
+        <v>138.33824727036</v>
       </c>
       <c r="S14">
-        <v>0.009052958579951184</v>
+        <v>0.01133512991865274</v>
       </c>
       <c r="T14">
-        <v>0.009052958579951182</v>
+        <v>0.01133512991865274</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1355,10 +1355,10 @@
         <v>1.88887</v>
       </c>
       <c r="I15">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J15">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,10 +1373,10 @@
         <v>167.922954</v>
       </c>
       <c r="O15">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P15">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q15">
         <v>35.24273668022</v>
@@ -1385,10 +1385,10 @@
         <v>317.18463012198</v>
       </c>
       <c r="S15">
-        <v>0.02501050956970704</v>
+        <v>0.02598940684571463</v>
       </c>
       <c r="T15">
-        <v>0.02501050956970703</v>
+        <v>0.02598940684571464</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1417,40 +1417,40 @@
         <v>1.88887</v>
       </c>
       <c r="I16">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J16">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N16">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O16">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P16">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q16">
-        <v>0.04523444888555554</v>
+        <v>0.03865551467555555</v>
       </c>
       <c r="R16">
-        <v>0.4071100399699999</v>
+        <v>0.34789963208</v>
       </c>
       <c r="S16">
-        <v>3.210127031274429E-05</v>
+        <v>2.850612615158678E-05</v>
       </c>
       <c r="T16">
-        <v>3.210127031274429E-05</v>
+        <v>2.850612615158678E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1479,10 +1479,10 @@
         <v>1.88887</v>
       </c>
       <c r="I17">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J17">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N17">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O17">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P17">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q17">
-        <v>11.07188371215444</v>
+        <v>2.066142128495556</v>
       </c>
       <c r="R17">
-        <v>99.64695340938999</v>
+        <v>18.59527915646</v>
       </c>
       <c r="S17">
-        <v>0.007857319823092511</v>
+        <v>0.001523656033462342</v>
       </c>
       <c r="T17">
-        <v>0.007857319823092509</v>
+        <v>0.001523656033462342</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1541,10 +1541,10 @@
         <v>1.88887</v>
       </c>
       <c r="I18">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J18">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N18">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O18">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P18">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q18">
-        <v>0.1217022027188888</v>
+        <v>0.1147112849744445</v>
       </c>
       <c r="R18">
-        <v>1.09531982447</v>
+        <v>1.03240156477</v>
       </c>
       <c r="S18">
-        <v>8.636769991427902E-05</v>
+        <v>8.45927001085813E-05</v>
       </c>
       <c r="T18">
-        <v>8.636769991427901E-05</v>
+        <v>8.459270010858132E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1603,40 +1603,40 @@
         <v>1.88887</v>
       </c>
       <c r="I19">
-        <v>0.04212240529645087</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="J19">
-        <v>0.04212240529645086</v>
+        <v>0.03896507094853987</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N19">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O19">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P19">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q19">
-        <v>0.1171657666022222</v>
+        <v>0.005124924058888889</v>
       </c>
       <c r="R19">
-        <v>1.05449189942</v>
+        <v>0.04612431653</v>
       </c>
       <c r="S19">
-        <v>8.314835347311759E-05</v>
+        <v>3.779324449982612E-06</v>
       </c>
       <c r="T19">
-        <v>8.314835347311758E-05</v>
+        <v>3.779324449982614E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H20">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I20">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J20">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N20">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O20">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P20">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q20">
-        <v>16.66428660248667</v>
+        <v>22.552419545792</v>
       </c>
       <c r="R20">
-        <v>149.97857942238</v>
+        <v>202.971775912128</v>
       </c>
       <c r="S20">
-        <v>0.01182604811100702</v>
+        <v>0.01663105825887232</v>
       </c>
       <c r="T20">
-        <v>0.01182604811100702</v>
+        <v>0.01663105825887232</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H21">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I21">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J21">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>167.922954</v>
       </c>
       <c r="O21">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P21">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q21">
-        <v>46.038242179396</v>
+        <v>51.70862717385601</v>
       </c>
       <c r="R21">
-        <v>414.344179614564</v>
+        <v>465.377644564704</v>
       </c>
       <c r="S21">
-        <v>0.03267169366125077</v>
+        <v>0.03813201458356014</v>
       </c>
       <c r="T21">
-        <v>0.03267169366125076</v>
+        <v>0.03813201458356015</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H22">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I22">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J22">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N22">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O22">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P22">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q22">
-        <v>0.0590906016051111</v>
+        <v>0.05671590190933333</v>
       </c>
       <c r="R22">
-        <v>0.5318154144459999</v>
+        <v>0.5104431171839999</v>
       </c>
       <c r="S22">
-        <v>4.193448625554215E-05</v>
+        <v>4.182457970610998E-05</v>
       </c>
       <c r="T22">
-        <v>4.193448625554215E-05</v>
+        <v>4.182457970610998E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H23">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I23">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J23">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N23">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O23">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P23">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q23">
-        <v>14.46340754826689</v>
+        <v>3.031472101045334</v>
       </c>
       <c r="R23">
-        <v>130.170667934402</v>
+        <v>27.283248909408</v>
       </c>
       <c r="S23">
-        <v>0.01026416297289214</v>
+        <v>0.002235529053557276</v>
       </c>
       <c r="T23">
-        <v>0.01026416297289214</v>
+        <v>0.002235529053557276</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H24">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I24">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J24">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N24">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O24">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P24">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q24">
-        <v>0.1589818501717777</v>
+        <v>0.1683059724106667</v>
       </c>
       <c r="R24">
-        <v>1.430836651546</v>
+        <v>1.514753751696</v>
       </c>
       <c r="S24">
-        <v>0.0001128237321979207</v>
+        <v>0.0001241155711383629</v>
       </c>
       <c r="T24">
-        <v>0.0001128237321979206</v>
+        <v>0.000124115571138363</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8224886666666666</v>
+        <v>0.9237920000000001</v>
       </c>
       <c r="H25">
-        <v>2.467466</v>
+        <v>2.771376</v>
       </c>
       <c r="I25">
-        <v>0.05502528120368921</v>
+        <v>0.05717008712356099</v>
       </c>
       <c r="J25">
-        <v>0.0550252812036892</v>
+        <v>0.05717008712356098</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N25">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O25">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P25">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q25">
-        <v>0.1530558193284444</v>
+        <v>0.007519358949333334</v>
       </c>
       <c r="R25">
-        <v>1.377502373956</v>
+        <v>0.067674230544</v>
       </c>
       <c r="S25">
-        <v>0.0001086182400858183</v>
+        <v>5.54507672677051E-06</v>
       </c>
       <c r="T25">
-        <v>0.0001086182400858183</v>
+        <v>5.545076726770511E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H26">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I26">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J26">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N26">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O26">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P26">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q26">
-        <v>148.2256479091967</v>
+        <v>207.1725645864507</v>
       </c>
       <c r="R26">
-        <v>1334.03083118277</v>
+        <v>1864.553081278056</v>
       </c>
       <c r="S26">
-        <v>0.1051904402074898</v>
+        <v>0.1527773543003343</v>
       </c>
       <c r="T26">
-        <v>0.1051904402074898</v>
+        <v>0.1527773543003343</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H27">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I27">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J27">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>167.922954</v>
       </c>
       <c r="O27">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P27">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q27">
-        <v>409.501374911734</v>
+        <v>475.0092947278121</v>
       </c>
       <c r="R27">
-        <v>3685.512374205606</v>
+        <v>4275.083652550308</v>
       </c>
       <c r="S27">
-        <v>0.2906084776834697</v>
+        <v>0.3502908961977925</v>
       </c>
       <c r="T27">
-        <v>0.2906084776834696</v>
+        <v>0.3502908961977926</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,46 +2155,46 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H28">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I28">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J28">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N28">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O28">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P28">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q28">
-        <v>0.5255996201454444</v>
+        <v>0.5210074611964444</v>
       </c>
       <c r="R28">
-        <v>4.730396581308999</v>
+        <v>4.689067150768</v>
       </c>
       <c r="S28">
-        <v>0.000372999249427186</v>
+        <v>0.0003842117881352552</v>
       </c>
       <c r="T28">
-        <v>0.000372999249427186</v>
+        <v>0.0003842117881352552</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H29">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I29">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J29">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N29">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O29">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P29">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q29">
-        <v>128.6492488971425</v>
+        <v>27.84791442756845</v>
       </c>
       <c r="R29">
-        <v>1157.843240074283</v>
+        <v>250.631229848116</v>
       </c>
       <c r="S29">
-        <v>0.09129777008728937</v>
+        <v>0.02053616847152872</v>
       </c>
       <c r="T29">
-        <v>0.09129777008728936</v>
+        <v>0.02053616847152872</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H30">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I30">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J30">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N30">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O30">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P30">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q30">
-        <v>1.414113205662111</v>
+        <v>1.546103728193556</v>
       </c>
       <c r="R30">
-        <v>12.727018850959</v>
+        <v>13.914933553742</v>
       </c>
       <c r="S30">
-        <v>0.001003545558444428</v>
+        <v>0.001140158869678553</v>
       </c>
       <c r="T30">
-        <v>0.001003545558444428</v>
+        <v>0.001140158869678553</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.315879666666667</v>
+        <v>8.486200666666667</v>
       </c>
       <c r="H31">
-        <v>21.947639</v>
+        <v>25.458602</v>
       </c>
       <c r="I31">
-        <v>0.4894393712951085</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="J31">
-        <v>0.4894393712951084</v>
+        <v>0.525179728187032</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N31">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O31">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P31">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q31">
-        <v>1.361402292663778</v>
+        <v>0.06907484469311111</v>
       </c>
       <c r="R31">
-        <v>12.252620633974</v>
+        <v>0.6216736022379999</v>
       </c>
       <c r="S31">
-        <v>0.0009661385089881152</v>
+        <v>5.093855956258305E-05</v>
       </c>
       <c r="T31">
-        <v>0.000966138508988115</v>
+        <v>5.093855956258306E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H32">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I32">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J32">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>20.26081</v>
+        <v>24.412876</v>
       </c>
       <c r="N32">
-        <v>60.78243000000001</v>
+        <v>73.23862800000001</v>
       </c>
       <c r="O32">
-        <v>0.2149202666903252</v>
+        <v>0.2909048961728503</v>
       </c>
       <c r="P32">
-        <v>0.2149202666903251</v>
+        <v>0.2909048961728504</v>
       </c>
       <c r="Q32">
-        <v>7.135533109040002</v>
+        <v>5.171705028093332</v>
       </c>
       <c r="R32">
-        <v>64.21979798136002</v>
+        <v>46.54534525284</v>
       </c>
       <c r="S32">
-        <v>0.005063832605507307</v>
+        <v>0.003813822612038612</v>
       </c>
       <c r="T32">
-        <v>0.005063832605507305</v>
+        <v>0.003813822612038613</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H33">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I33">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J33">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>167.922954</v>
       </c>
       <c r="O33">
-        <v>0.5937578681389869</v>
+        <v>0.6669924168760825</v>
       </c>
       <c r="P33">
-        <v>0.5937578681389868</v>
+        <v>0.6669924168760826</v>
       </c>
       <c r="Q33">
-        <v>19.713259210512</v>
+        <v>11.85778610618</v>
       </c>
       <c r="R33">
-        <v>177.419332894608</v>
+        <v>106.72007495562</v>
       </c>
       <c r="S33">
-        <v>0.01398979490748072</v>
+        <v>0.008744406831945566</v>
       </c>
       <c r="T33">
-        <v>0.01398979490748072</v>
+        <v>0.008744406831945566</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,46 +2527,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H34">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I34">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J34">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L34">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.07184366666666665</v>
+        <v>0.06139466666666666</v>
       </c>
       <c r="N34">
-        <v>0.215531</v>
+        <v>0.184184</v>
       </c>
       <c r="O34">
-        <v>0.0007620949014383343</v>
+        <v>0.0007315815282162339</v>
       </c>
       <c r="P34">
-        <v>0.0007620949014383344</v>
+        <v>0.000731581528216234</v>
       </c>
       <c r="Q34">
-        <v>0.02530218990133333</v>
+        <v>0.01300605083555555</v>
       </c>
       <c r="R34">
-        <v>0.227719709112</v>
+        <v>0.11705445752</v>
       </c>
       <c r="S34">
-        <v>1.795605909960485E-05</v>
+        <v>9.591183275248134E-06</v>
       </c>
       <c r="T34">
-        <v>1.795605909960485E-05</v>
+        <v>9.591183275248134E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H35">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I35">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J35">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>17.58493233333333</v>
+        <v>3.281552666666667</v>
       </c>
       <c r="N35">
-        <v>52.754797</v>
+        <v>9.844658000000001</v>
       </c>
       <c r="O35">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389531</v>
       </c>
       <c r="P35">
-        <v>0.1865354024252397</v>
+        <v>0.03910312483389532</v>
       </c>
       <c r="Q35">
-        <v>6.193131808882667</v>
+        <v>0.6951750554155555</v>
       </c>
       <c r="R35">
-        <v>55.738186279944</v>
+        <v>6.25657549874</v>
       </c>
       <c r="S35">
-        <v>0.004395044113003033</v>
+        <v>0.0005126499541770064</v>
       </c>
       <c r="T35">
-        <v>0.004395044113003032</v>
+        <v>0.0005126499541770065</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H36">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I36">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J36">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.1932936666666666</v>
+        <v>0.1821903333333333</v>
       </c>
       <c r="N36">
-        <v>0.5798809999999999</v>
+        <v>0.546571</v>
       </c>
       <c r="O36">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="P36">
-        <v>0.00205039810301517</v>
+        <v>0.002170987965614143</v>
       </c>
       <c r="Q36">
-        <v>0.06807493670133333</v>
+        <v>0.03859580751444444</v>
       </c>
       <c r="R36">
-        <v>0.612674430312</v>
+        <v>0.34736226763</v>
       </c>
       <c r="S36">
-        <v>4.831034749867981E-05</v>
+        <v>2.846209569743109E-05</v>
       </c>
       <c r="T36">
-        <v>4.83103474986798E-05</v>
+        <v>2.84620956974311E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.3521840000000001</v>
+        <v>0.2118433333333333</v>
       </c>
       <c r="H37">
-        <v>1.056552</v>
+        <v>0.6355299999999999</v>
       </c>
       <c r="I37">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="J37">
-        <v>0.02356144761723981</v>
+        <v>0.01311020427023858</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.1860886666666667</v>
+        <v>0.008139666666666667</v>
       </c>
       <c r="N37">
-        <v>0.5582659999999999</v>
+        <v>0.024419</v>
       </c>
       <c r="O37">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139891E-05</v>
       </c>
       <c r="P37">
-        <v>0.001973969740994906</v>
+        <v>9.699262334139893E-05</v>
       </c>
       <c r="Q37">
-        <v>0.06553745098133333</v>
+        <v>0.001724334118888889</v>
       </c>
       <c r="R37">
-        <v>0.589837058832</v>
+        <v>0.01551900707</v>
       </c>
       <c r="S37">
-        <v>4.650958465046792E-05</v>
+        <v>1.27159310471205E-06</v>
       </c>
       <c r="T37">
-        <v>4.650958465046792E-05</v>
+        <v>1.27159310471205E-06</v>
       </c>
     </row>
   </sheetData>
